--- a/doc/tables.xlsx
+++ b/doc/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\feup\iart\FEUP-IART\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\Faculdade\3Ano2Semestre\IART\FEUP-IART\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161AC858-EACB-4B24-9FAE-A7A18B96E9FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865AF19A-9283-423D-97C8-BF8DB531C391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="21">
   <si>
     <t>MEMORY USED (BLOCKS)</t>
   </si>
@@ -89,11 +89,20 @@
   <si>
     <t>* Since we're using python, some puzzles using Iterative Deepening reach the "maximum recursion depth", so the values are ignored to avoid extreme cases</t>
   </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,9 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,9 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +318,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -629,51 +638,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="10"/>
       <c r="N2" s="20" t="s">
         <v>17</v>
       </c>
@@ -693,13 +706,13 @@
       <c r="AB2" s="20"/>
       <c r="AC2" s="20"/>
     </row>
-    <row r="3" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
@@ -719,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,7 +764,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -783,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -815,7 +828,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,49 +860,49 @@
         <v>2327018</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="9" t="s">
         <v>6</v>
       </c>
@@ -909,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,7 +954,7 @@
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
@@ -973,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1018,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1037,49 +1050,49 @@
         <v>5438470</v>
       </c>
     </row>
-    <row r="15" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="9" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,97 +1240,99 @@
         <v>147634</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="12" t="s">
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="9" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>2.3929999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1465,49 +1480,49 @@
         <v>11378810</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="12" t="s">
+      <c r="H34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="9" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1655,40 +1670,40 @@
         <v>5246782</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="12" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="12" t="s">
+      <c r="H41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="9" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,7 +1755,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
@@ -1836,52 +1851,54 @@
         <v>228394</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-    </row>
-    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-    </row>
-    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12" t="s">
+      <c r="F52" s="12"/>
+      <c r="G52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="12" t="s">
+      <c r="H52" s="13"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="9" t="s">
         <v>6</v>
       </c>
@@ -1901,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1950,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +2014,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
@@ -2029,49 +2046,49 @@
         <v>8186146</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="16"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="12" t="s">
+      <c r="H59" s="13"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="9" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2140,7 @@
         <v>4.5910000000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>2</v>
       </c>
@@ -2155,7 +2172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
         <v>1</v>
       </c>
@@ -2187,7 +2204,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
@@ -2219,40 +2236,40 @@
         <v>13560339</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="16"/>
-    </row>
-    <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12" t="s">
+      <c r="F66" s="12"/>
+      <c r="G66" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="12" t="s">
+      <c r="H66" s="13"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="9" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +2321,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
@@ -2336,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2385,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
         <v>0</v>
       </c>
@@ -2402,6 +2419,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
@@ -2417,19 +2446,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
